--- a/VillaProjectDetailed.xlsx
+++ b/VillaProjectDetailed.xlsx
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>-1.953992523340276e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>-1.953992523340276e-14</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -569,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.744760391319263</v>
+        <v>12.09253736982801</v>
       </c>
       <c r="K3" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>-1.953992523340276e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>7.744760391319309</v>
+        <v>12.09253736982799</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7.744760391319263</v>
+        <v>12.09253736982801</v>
       </c>
       <c r="J4" t="n">
-        <v>13.73920660734102</v>
+        <v>18.32456994328321</v>
       </c>
       <c r="K4" t="n">
-        <v>10.33026265403031</v>
+        <v>12.57649984227751</v>
       </c>
       <c r="L4" t="n">
-        <v>16.32470887005207</v>
+        <v>18.80853241573271</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>7.744760391319263</v>
+        <v>12.09253736982801</v>
       </c>
       <c r="J5" t="n">
-        <v>16.32470887005202</v>
+        <v>18.80853241573273</v>
       </c>
       <c r="K5" t="n">
-        <v>7.744760391319309</v>
+        <v>12.09253736982799</v>
       </c>
       <c r="L5" t="n">
-        <v>16.32470887005207</v>
+        <v>18.80853241573271</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7.744760391319263</v>
+        <v>12.09253736982801</v>
       </c>
       <c r="J6" t="n">
-        <v>11.11164591839026</v>
+        <v>16.42745937022424</v>
       </c>
       <c r="K6" t="n">
-        <v>12.95782334298107</v>
+        <v>14.47361041533649</v>
       </c>
       <c r="L6" t="n">
-        <v>16.32470887005207</v>
+        <v>18.80853241573271</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16.32470887005202</v>
+        <v>18.80853241573273</v>
       </c>
       <c r="J7" t="n">
-        <v>20.21024899609851</v>
+        <v>21.90758344167588</v>
       </c>
       <c r="K7" t="n">
-        <v>16.32470887005207</v>
+        <v>18.80853241573271</v>
       </c>
       <c r="L7" t="n">
-        <v>20.21024899609855</v>
+        <v>21.90758344167586</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>20.21024899609851</v>
+        <v>21.90758344167588</v>
       </c>
       <c r="J8" t="n">
-        <v>25.25413931041973</v>
+        <v>29.21415594282773</v>
       </c>
       <c r="K8" t="n">
-        <v>24.07613703818905</v>
+        <v>23.60127499300175</v>
       </c>
       <c r="L8" t="n">
-        <v>29.12002735251027</v>
+        <v>30.9078474941536</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>20.21024899609851</v>
+        <v>21.90758344167588</v>
       </c>
       <c r="J9" t="n">
-        <v>29.12002735251023</v>
+        <v>30.90784749415362</v>
       </c>
       <c r="K9" t="n">
-        <v>20.21024899609855</v>
+        <v>21.90758344167586</v>
       </c>
       <c r="L9" t="n">
-        <v>29.12002735251027</v>
+        <v>30.9078474941536</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>20.21024899609851</v>
+        <v>21.90758344167588</v>
       </c>
       <c r="J10" t="n">
-        <v>25.12448595296402</v>
+        <v>28.42831157952575</v>
       </c>
       <c r="K10" t="n">
-        <v>24.20579039564476</v>
+        <v>24.38711935630373</v>
       </c>
       <c r="L10" t="n">
-        <v>29.12002735251027</v>
+        <v>30.9078474941536</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>29.12002735251023</v>
+        <v>30.90784749415362</v>
       </c>
       <c r="J11" t="n">
-        <v>40.6338464235471</v>
+        <v>37.76781923126162</v>
       </c>
       <c r="K11" t="n">
-        <v>29.12002735251027</v>
+        <v>30.9078474941536</v>
       </c>
       <c r="L11" t="n">
-        <v>40.63384642354714</v>
+        <v>37.7678192312616</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>40.6338464235471</v>
+        <v>37.76781923126162</v>
       </c>
       <c r="J12" t="n">
-        <v>46.47803392860317</v>
+        <v>45.1812161888779</v>
       </c>
       <c r="K12" t="n">
-        <v>40.63384642354714</v>
+        <v>37.7678192312616</v>
       </c>
       <c r="L12" t="n">
-        <v>46.47803392860321</v>
+        <v>45.18121618887788</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>40.6338464235471</v>
+        <v>37.76781923126162</v>
       </c>
       <c r="J13" t="n">
-        <v>45.53932882681503</v>
+        <v>40.52231155332522</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57255152533528</v>
+        <v>42.42672386681428</v>
       </c>
       <c r="L13" t="n">
-        <v>46.47803392860321</v>
+        <v>45.18121618887788</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46.47803392860317</v>
+        <v>45.1812161888779</v>
       </c>
       <c r="J14" t="n">
-        <v>49.70325668345853</v>
+        <v>49.21645263435355</v>
       </c>
       <c r="K14" t="n">
-        <v>46.47803392860321</v>
+        <v>45.18121618887788</v>
       </c>
       <c r="L14" t="n">
-        <v>49.70325668345858</v>
+        <v>49.21645263435354</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -1178,16 +1178,16 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>49.70325668345853</v>
+        <v>49.21645263435355</v>
       </c>
       <c r="J15" t="n">
-        <v>61.44455897529174</v>
+        <v>60.93562442211354</v>
       </c>
       <c r="K15" t="n">
-        <v>49.70325668345858</v>
+        <v>49.21645263435354</v>
       </c>
       <c r="L15" t="n">
-        <v>61.44455897529178</v>
+        <v>60.93562442211353</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>61.44455897529174</v>
+        <v>60.93562442211354</v>
       </c>
       <c r="J16" t="n">
-        <v>79.71242730446021</v>
+        <v>78.59211183966541</v>
       </c>
       <c r="K16" t="n">
-        <v>61.44455897529178</v>
+        <v>60.93562442211353</v>
       </c>
       <c r="L16" t="n">
-        <v>79.71242730446025</v>
+        <v>78.59211183966539</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>79.71242730446021</v>
+        <v>78.59211183966541</v>
       </c>
       <c r="J17" t="n">
-        <v>101.5239280688915</v>
+        <v>99.94911831070513</v>
       </c>
       <c r="K17" t="n">
-        <v>79.71242730446025</v>
+        <v>78.59211183966539</v>
       </c>
       <c r="L17" t="n">
-        <v>101.5239280688916</v>
+        <v>99.94911831070512</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -1331,16 +1331,16 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>101.5239280688915</v>
+        <v>99.94911831070513</v>
       </c>
       <c r="J18" t="n">
-        <v>116.8795110925786</v>
+        <v>111.966370861176</v>
       </c>
       <c r="K18" t="n">
-        <v>124.1433012410161</v>
+        <v>120.8168071793862</v>
       </c>
       <c r="L18" t="n">
-        <v>139.4988842647032</v>
+        <v>132.8340597298571</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>101.5239280688915</v>
+        <v>99.94911831070513</v>
       </c>
       <c r="J19" t="n">
-        <v>139.4988842647032</v>
+        <v>132.8340597298571</v>
       </c>
       <c r="K19" t="n">
-        <v>101.5239280688916</v>
+        <v>99.94911831070512</v>
       </c>
       <c r="L19" t="n">
-        <v>139.4988842647032</v>
+        <v>132.8340597298571</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>139.4988842647032</v>
+        <v>132.8340597298571</v>
       </c>
       <c r="J20" t="n">
-        <v>153.8655680503813</v>
+        <v>151.8285766183021</v>
       </c>
       <c r="K20" t="n">
-        <v>139.4988842647032</v>
+        <v>132.8340597298571</v>
       </c>
       <c r="L20" t="n">
-        <v>153.8655680503813</v>
+        <v>151.8285766183021</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>153.8655680503813</v>
+        <v>151.8285766183021</v>
       </c>
       <c r="J21" t="n">
-        <v>160.8368474647778</v>
+        <v>156.7347888889306</v>
       </c>
       <c r="K21" t="n">
-        <v>161.6269627675805</v>
+        <v>157.1129501983592</v>
       </c>
       <c r="L21" t="n">
-        <v>168.598242181977</v>
+        <v>162.0191624689876</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>153.8655680503813</v>
+        <v>151.8285766183021</v>
       </c>
       <c r="J22" t="n">
-        <v>168.598242181977</v>
+        <v>162.0191624689876</v>
       </c>
       <c r="K22" t="n">
-        <v>153.8655680503813</v>
+        <v>151.8285766183021</v>
       </c>
       <c r="L22" t="n">
-        <v>168.598242181977</v>
+        <v>162.0191624689876</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>153.8655680503813</v>
+        <v>151.8285766183021</v>
       </c>
       <c r="J23" t="n">
-        <v>159.0611310160637</v>
+        <v>156.4198491377993</v>
       </c>
       <c r="K23" t="n">
-        <v>163.4026792162946</v>
+        <v>157.4278899494905</v>
       </c>
       <c r="L23" t="n">
-        <v>168.598242181977</v>
+        <v>162.0191624689876</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>153.8655680503813</v>
+        <v>151.8285766183021</v>
       </c>
       <c r="J24" t="n">
-        <v>157.3329467901115</v>
+        <v>155.4482265470937</v>
       </c>
       <c r="K24" t="n">
-        <v>165.1308634422468</v>
+        <v>158.3995125401961</v>
       </c>
       <c r="L24" t="n">
-        <v>168.598242181977</v>
+        <v>162.0191624689876</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>168.598242181977</v>
+        <v>162.0191624689876</v>
       </c>
       <c r="J25" t="n">
-        <v>176.7628981242689</v>
+        <v>171.50990573688</v>
       </c>
       <c r="K25" t="n">
-        <v>168.598242181977</v>
+        <v>162.0191624689876</v>
       </c>
       <c r="L25" t="n">
-        <v>176.7628981242689</v>
+        <v>171.50990573688</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -1739,16 +1739,16 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>176.7628981242689</v>
+        <v>171.50990573688</v>
       </c>
       <c r="J26" t="n">
-        <v>184.1574441060982</v>
+        <v>177.383209774936</v>
       </c>
       <c r="K26" t="n">
-        <v>176.7628981242689</v>
+        <v>171.50990573688</v>
       </c>
       <c r="L26" t="n">
-        <v>184.1574441060983</v>
+        <v>177.383209774936</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -1790,16 +1790,16 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>176.7628981242689</v>
+        <v>171.50990573688</v>
       </c>
       <c r="J27" t="n">
-        <v>180.6631148915179</v>
+        <v>177.2204774769916</v>
       </c>
       <c r="K27" t="n">
-        <v>180.2572273388493</v>
+        <v>171.6726380348245</v>
       </c>
       <c r="L27" t="n">
-        <v>184.1574441060983</v>
+        <v>177.383209774936</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>176.7628981242689</v>
+        <v>171.50990573688</v>
       </c>
       <c r="J28" t="n">
-        <v>181.7743389833291</v>
+        <v>174.5827824098474</v>
       </c>
       <c r="K28" t="n">
-        <v>179.146003247038</v>
+        <v>174.3103331019686</v>
       </c>
       <c r="L28" t="n">
-        <v>184.1574441060983</v>
+        <v>177.383209774936</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>176.7628981242689</v>
+        <v>171.50990573688</v>
       </c>
       <c r="J29" t="n">
-        <v>179.8701502049893</v>
+        <v>175.5184030518506</v>
       </c>
       <c r="K29" t="n">
-        <v>181.0501920253778</v>
+        <v>173.3747124599654</v>
       </c>
       <c r="L29" t="n">
-        <v>184.1574441060983</v>
+        <v>177.383209774936</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
@@ -1943,16 +1943,16 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>184.1574441060982</v>
+        <v>177.383209774936</v>
       </c>
       <c r="J30" t="n">
-        <v>193.9173150911023</v>
+        <v>185.6496090324582</v>
       </c>
       <c r="K30" t="n">
-        <v>184.1574441060983</v>
+        <v>177.383209774936</v>
       </c>
       <c r="L30" t="n">
-        <v>193.9173150911023</v>
+        <v>185.6496090324582</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>193.9173150911023</v>
+        <v>185.6496090324582</v>
       </c>
       <c r="J31" t="n">
-        <v>199.0183338106463</v>
+        <v>195.7775592761971</v>
       </c>
       <c r="K31" t="n">
-        <v>193.9173150911023</v>
+        <v>185.6496090324582</v>
       </c>
       <c r="L31" t="n">
-        <v>199.0183338106463</v>
+        <v>195.7775592761971</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2045,16 +2045,16 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>193.9173150911023</v>
+        <v>185.6496090324582</v>
       </c>
       <c r="J32" t="n">
-        <v>197.6723449324496</v>
+        <v>188.4670801314787</v>
       </c>
       <c r="K32" t="n">
-        <v>195.263303969299</v>
+        <v>192.9600881771766</v>
       </c>
       <c r="L32" t="n">
-        <v>199.0183338106463</v>
+        <v>195.7775592761971</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>199.0183338106463</v>
+        <v>195.7775592761971</v>
       </c>
       <c r="J33" t="n">
-        <v>209.9369349901054</v>
+        <v>209.5034753721819</v>
       </c>
       <c r="K33" t="n">
-        <v>199.0183338106463</v>
+        <v>195.7775592761971</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9369349901055</v>
+        <v>209.5034753721819</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
@@ -2147,16 +2147,16 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>199.0183338106463</v>
+        <v>195.7775592761971</v>
       </c>
       <c r="J34" t="n">
-        <v>209.9195162966994</v>
+        <v>205.0425230404332</v>
       </c>
       <c r="K34" t="n">
-        <v>199.0357525040523</v>
+        <v>200.2385116079457</v>
       </c>
       <c r="L34" t="n">
-        <v>209.9369349901055</v>
+        <v>209.5034753721819</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
@@ -2198,16 +2198,16 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>199.0183338106463</v>
+        <v>195.7775592761971</v>
       </c>
       <c r="J35" t="n">
-        <v>202.9125433181092</v>
+        <v>199.8132132693735</v>
       </c>
       <c r="K35" t="n">
-        <v>206.0427254826425</v>
+        <v>205.4678213790055</v>
       </c>
       <c r="L35" t="n">
-        <v>209.9369349901055</v>
+        <v>209.5034753721819</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>242.9274606398425</v>
+        <v>235.9709190668192</v>
       </c>
       <c r="J36" t="n">
-        <v>260.7555299773972</v>
+        <v>249.0472942321188</v>
       </c>
       <c r="K36" t="n">
-        <v>242.9274606398425</v>
+        <v>235.9709190668192</v>
       </c>
       <c r="L36" t="n">
-        <v>260.7555299773972</v>
+        <v>249.0472942321188</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
@@ -2300,16 +2300,16 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>209.9369349901054</v>
+        <v>209.5034753721819</v>
       </c>
       <c r="J37" t="n">
-        <v>236.2984657495938</v>
+        <v>228.4521976316904</v>
       </c>
       <c r="K37" t="n">
-        <v>216.5659298803542</v>
+        <v>217.0221968073107</v>
       </c>
       <c r="L37" t="n">
-        <v>242.9274606398425</v>
+        <v>235.9709190668192</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>209.9369349901054</v>
+        <v>209.5034753721819</v>
       </c>
       <c r="J38" t="n">
-        <v>242.9274606398425</v>
+        <v>235.9709190668192</v>
       </c>
       <c r="K38" t="n">
-        <v>209.9369349901055</v>
+        <v>209.5034753721819</v>
       </c>
       <c r="L38" t="n">
-        <v>242.9274606398425</v>
+        <v>235.9709190668192</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>260.7555299773972</v>
+        <v>249.0472942321188</v>
       </c>
       <c r="J39" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="K39" t="n">
-        <v>260.7555299773972</v>
+        <v>249.0472942321188</v>
       </c>
       <c r="L39" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
@@ -2453,19 +2453,19 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="J40" t="n">
-        <v>301.4156926810494</v>
+        <v>288.7371015432086</v>
       </c>
       <c r="K40" t="n">
-        <v>272.5242803754738</v>
+        <v>273.2251478551703</v>
       </c>
       <c r="L40" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2504,16 +2504,16 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="J41" t="n">
-        <v>286.0235493002443</v>
+        <v>284.3593123093635</v>
       </c>
       <c r="K41" t="n">
-        <v>287.9164237562789</v>
+        <v>277.6029370890154</v>
       </c>
       <c r="L41" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
@@ -2555,16 +2555,16 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="J42" t="n">
-        <v>281.2536486074489</v>
+        <v>275.4442301051116</v>
       </c>
       <c r="K42" t="n">
-        <v>292.6863244490743</v>
+        <v>286.5180192932673</v>
       </c>
       <c r="L42" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2366569506919</v>
+        <v>271.5716774059464</v>
       </c>
       <c r="K43" t="n">
-        <v>297.7033161058314</v>
+        <v>290.3905719924325</v>
       </c>
       <c r="L43" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
@@ -2657,16 +2657,16 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="J44" t="n">
-        <v>275.3539055181137</v>
+        <v>273.2972243926853</v>
       </c>
       <c r="K44" t="n">
-        <v>298.5860675384095</v>
+        <v>288.6650250056935</v>
       </c>
       <c r="L44" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
@@ -2708,16 +2708,16 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="J45" t="n">
-        <v>287.9867991788297</v>
+        <v>281.3320012996491</v>
       </c>
       <c r="K45" t="n">
-        <v>285.9531738776935</v>
+        <v>280.6302480987297</v>
       </c>
       <c r="L45" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
@@ -2759,19 +2759,19 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>272.5242803754738</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="J46" t="n">
-        <v>292.0469439531569</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="K46" t="n">
-        <v>281.8930291033664</v>
+        <v>268.1620774498103</v>
       </c>
       <c r="L46" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2810,16 +2810,16 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="J47" t="n">
-        <v>305.4143204880901</v>
+        <v>300.2152659898465</v>
       </c>
       <c r="K47" t="n">
-        <v>301.4156926810494</v>
+        <v>293.8001719485686</v>
       </c>
       <c r="L47" t="n">
-        <v>305.4143204880901</v>
+        <v>300.2152659898465</v>
       </c>
       <c r="M47" t="b">
         <v>1</v>
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>305.4143204880901</v>
+        <v>300.2152659898465</v>
       </c>
       <c r="J48" t="n">
-        <v>313.1275782032029</v>
+        <v>311.3519299351922</v>
       </c>
       <c r="K48" t="n">
-        <v>305.4143204880901</v>
+        <v>300.2152659898465</v>
       </c>
       <c r="L48" t="n">
-        <v>313.1275782032029</v>
+        <v>311.3519299351922</v>
       </c>
       <c r="M48" t="b">
         <v>1</v>
@@ -2912,16 +2912,16 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>305.4143204880901</v>
+        <v>300.2152659898465</v>
       </c>
       <c r="J49" t="n">
-        <v>313.0257125829336</v>
+        <v>310.1044501003571</v>
       </c>
       <c r="K49" t="n">
-        <v>305.5161861083595</v>
+        <v>301.4627458246816</v>
       </c>
       <c r="L49" t="n">
-        <v>313.1275782032029</v>
+        <v>311.3519299351922</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
@@ -2963,16 +2963,16 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>305.4143204880901</v>
+        <v>300.2152659898465</v>
       </c>
       <c r="J50" t="n">
-        <v>311.5217569719354</v>
+        <v>306.3821062136789</v>
       </c>
       <c r="K50" t="n">
-        <v>307.0201417193577</v>
+        <v>305.1850897113599</v>
       </c>
       <c r="L50" t="n">
-        <v>313.1275782032029</v>
+        <v>311.3519299351922</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>313.1275782032029</v>
+        <v>311.3519299351922</v>
       </c>
       <c r="J51" t="n">
-        <v>322.5107224971475</v>
+        <v>318.2908535776152</v>
       </c>
       <c r="K51" t="n">
-        <v>313.1275782032029</v>
+        <v>311.3519299351922</v>
       </c>
       <c r="L51" t="n">
-        <v>322.5107224971475</v>
+        <v>318.2908535776152</v>
       </c>
       <c r="M51" t="b">
         <v>1</v>
@@ -3065,16 +3065,16 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>322.5107224971475</v>
+        <v>318.2908535776152</v>
       </c>
       <c r="J52" t="n">
-        <v>338.6898821267018</v>
+        <v>337.0670462508103</v>
       </c>
       <c r="K52" t="n">
-        <v>322.5107224971475</v>
+        <v>318.2908535776152</v>
       </c>
       <c r="L52" t="n">
-        <v>338.6898821267018</v>
+        <v>337.0670462508103</v>
       </c>
       <c r="M52" t="b">
         <v>1</v>
@@ -3116,16 +3116,16 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>338.6898821267018</v>
+        <v>337.0670462508103</v>
       </c>
       <c r="J53" t="n">
-        <v>341.9032429637529</v>
+        <v>340.1169016445333</v>
       </c>
       <c r="K53" t="n">
-        <v>351.5368636596987</v>
+        <v>346.7050092595578</v>
       </c>
       <c r="L53" t="n">
-        <v>354.7502244967498</v>
+        <v>349.7548646532807</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>338.6898821267018</v>
+        <v>337.0670462508103</v>
       </c>
       <c r="J54" t="n">
-        <v>354.7502244967498</v>
+        <v>349.7548646532807</v>
       </c>
       <c r="K54" t="n">
-        <v>338.6898821267018</v>
+        <v>337.0670462508103</v>
       </c>
       <c r="L54" t="n">
-        <v>354.7502244967498</v>
+        <v>349.7548646532807</v>
       </c>
       <c r="M54" t="b">
         <v>1</v>
@@ -3218,16 +3218,16 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>338.6898821267018</v>
+        <v>337.0670462508103</v>
       </c>
       <c r="J55" t="n">
-        <v>344.3624010628793</v>
+        <v>340.9466838361263</v>
       </c>
       <c r="K55" t="n">
-        <v>349.0777055605723</v>
+        <v>345.8752270679648</v>
       </c>
       <c r="L55" t="n">
-        <v>354.7502244967498</v>
+        <v>349.7548646532807</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>354.7502244967498</v>
+        <v>349.7548646532807</v>
       </c>
       <c r="J56" t="n">
-        <v>359.1180839949105</v>
+        <v>353.2825717948991</v>
       </c>
       <c r="K56" t="n">
-        <v>354.7502244967498</v>
+        <v>351.5999527052232</v>
       </c>
       <c r="L56" t="n">
-        <v>359.1180839949105</v>
+        <v>355.1276598468415</v>
       </c>
       <c r="M56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3320,19 +3320,19 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>354.7502244967498</v>
+        <v>349.7548646532807</v>
       </c>
       <c r="J57" t="n">
-        <v>358.8169491693823</v>
+        <v>355.1276598468415</v>
       </c>
       <c r="K57" t="n">
-        <v>355.0513593222781</v>
+        <v>349.7548646532807</v>
       </c>
       <c r="L57" t="n">
-        <v>359.1180839949105</v>
+        <v>355.1276598468415</v>
       </c>
       <c r="M57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3371,16 +3371,16 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>359.1180839949105</v>
+        <v>355.1276598468415</v>
       </c>
       <c r="J58" t="n">
-        <v>362.6336158400854</v>
+        <v>359.5108863557712</v>
       </c>
       <c r="K58" t="n">
-        <v>364.0052839486239</v>
+        <v>357.643979427442</v>
       </c>
       <c r="L58" t="n">
-        <v>367.5208157937988</v>
+        <v>362.0272059363717</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
@@ -3422,16 +3422,16 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>359.1180839949105</v>
+        <v>355.1276598468415</v>
       </c>
       <c r="J59" t="n">
-        <v>367.5208157937988</v>
+        <v>362.0272059363717</v>
       </c>
       <c r="K59" t="n">
-        <v>359.1180839949105</v>
+        <v>355.1276598468415</v>
       </c>
       <c r="L59" t="n">
-        <v>367.5208157937988</v>
+        <v>362.0272059363717</v>
       </c>
       <c r="M59" t="b">
         <v>1</v>
@@ -3473,16 +3473,16 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>359.1180839949105</v>
+        <v>355.1276598468415</v>
       </c>
       <c r="J60" t="n">
-        <v>363.8480166421637</v>
+        <v>359.3529607234783</v>
       </c>
       <c r="K60" t="n">
-        <v>362.7908831465456</v>
+        <v>357.8019050597349</v>
       </c>
       <c r="L60" t="n">
-        <v>367.5208157937988</v>
+        <v>362.0272059363717</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
@@ -3524,16 +3524,16 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>367.5208157937988</v>
+        <v>362.0272059363717</v>
       </c>
       <c r="J61" t="n">
-        <v>370.84437873305</v>
+        <v>366.3032188934055</v>
       </c>
       <c r="K61" t="n">
-        <v>367.5208157937988</v>
+        <v>362.0272059363717</v>
       </c>
       <c r="L61" t="n">
-        <v>370.84437873305</v>
+        <v>366.3032188934055</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
@@ -3575,16 +3575,16 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>370.84437873305</v>
+        <v>366.3032188934055</v>
       </c>
       <c r="J62" t="n">
-        <v>375.3932645853387</v>
+        <v>370.4195069806722</v>
       </c>
       <c r="K62" t="n">
-        <v>370.84437873305</v>
+        <v>366.3032188934055</v>
       </c>
       <c r="L62" t="n">
-        <v>375.3932645853387</v>
+        <v>370.4195069806722</v>
       </c>
       <c r="M62" t="b">
         <v>1</v>
@@ -3626,16 +3626,16 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>375.3932645853387</v>
+        <v>370.4195069806722</v>
       </c>
       <c r="J63" t="n">
-        <v>376.3932645853387</v>
+        <v>371.4195069806722</v>
       </c>
       <c r="K63" t="n">
-        <v>375.3932645853387</v>
+        <v>370.4195069806722</v>
       </c>
       <c r="L63" t="n">
-        <v>376.3932645853387</v>
+        <v>371.4195069806722</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
@@ -3668,16 +3668,16 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>376.3932645853387</v>
+        <v>371.4195069806722</v>
       </c>
       <c r="J64" t="n">
-        <v>376.3932645853387</v>
+        <v>371.4195069806722</v>
       </c>
       <c r="K64" t="n">
-        <v>376.3932645853387</v>
+        <v>371.4195069806722</v>
       </c>
       <c r="L64" t="n">
-        <v>376.3932645853387</v>
+        <v>371.4195069806722</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
